--- a/public/assets/addons_bulk_format_nodata.xlsx
+++ b/public/assets/addons_bulk_format_nodata.xlsx
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">name</t>
+    <t xml:space="preserve">Id</t>
   </si>
   <si>
-    <t xml:space="preserve">price</t>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">restaurant_id</t>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestaurantId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
   </si>
 </sst>
 </file>
@@ -38,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -59,6 +65,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -104,8 +116,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -126,18 +142,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -146,6 +163,12 @@
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
